--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>165309</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信沪深300指数(LOF)</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.45</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>165309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>建信沪深300指数(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010124</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴银景气优选混合A</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010125</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴银景气优选混合C</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -790,25 +900,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001797</t>
+          <t>010124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华融新利灵活配置混合</t>
+          <t>兴银景气优选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>010125</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>兴银景气优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>002908</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>富国睿利定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002908</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国睿利定期开放混合</t>
+          <t>华融新利灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.55</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.02</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.01</v>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1870,149 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1911,7 +1912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,17 +1923,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1942,14 +1963,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1958,14 +2001,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.55</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1974,14 +2039,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.02</v>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1990,14 +2077,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.01</v>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2006,13 +2115,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2196,7 +2197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,17 +2208,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2227,14 +2248,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.72</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2243,14 +2286,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.71</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2259,14 +2324,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>5.55</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -2275,14 +2446,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.02</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="6">
@@ -2291,14 +2462,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.01</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="7">
@@ -2307,13 +2478,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5.18</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.72</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5.55</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.02</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>4.01</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.34</v>
       </c>
     </row>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+          <t>广发中证基建工程ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>110.20</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.48</t>
+          <t>99.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4851</t>
+          <t>3.5778</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5045</t>
+          <t>0.4112</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,22 +759,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1855</t>
+          <t>0.1322</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,6 +787,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1259,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1827,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2301,7 +2488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
+++ b/数据整理/stocks/A股/上证主板/601618-中国中冶.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.12</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5.18</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.72</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.71</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5.55</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.02</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>4.01</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信沪深300指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +908,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>73.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.56</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5778</t>
+          <t>2.9118</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +946,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4112</t>
+          <t>0.3566</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,26 +984,216 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1322</t>
+          <t>0.1072</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -848,27 +1263,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+          <t>广发中证基建工程ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>110.20</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.48</t>
+          <t>99.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4851</t>
+          <t>3.5778</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -891,22 +1306,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5045</t>
+          <t>0.4112</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -929,22 +1344,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1855</t>
+          <t>0.1322</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -957,6 +1372,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1446,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2014,7 +2599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2486,212 +3071,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1436</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6257</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4763</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>165309</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信沪深300指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>